--- a/EGGI_COM/excel/eggi_temp_2022-05-30output.xlsx
+++ b/EGGI_COM/excel/eggi_temp_2022-05-30output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>kevin</t>
+  </si>
+  <si>
+    <t>11106AA458035554232</t>
+  </si>
+  <si>
+    <t>wang</t>
   </si>
   <si>
     <t>192.168.50.238</t>
@@ -404,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +444,65 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>61.74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>61.74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/EGGI_COM/excel/eggi_temp_2022-05-30output.xlsx
+++ b/EGGI_COM/excel/eggi_temp_2022-05-30output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>wang</t>
+  </si>
+  <si>
+    <t>Winnoiz</t>
+  </si>
+  <si>
+    <t>1234567</t>
   </si>
   <si>
     <t>192.168.50.238</t>
@@ -410,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>61.74</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>98.81999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>61.74</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>98.81999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,19 +496,88 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>61.74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>61.74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>61.74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
